--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2731.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2731.xlsx
@@ -354,7 +354,7 @@
         <v>2.400800356443721</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.367282449644171</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2731.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2731.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161687700425338</v>
+        <v>0.6955972909927368</v>
       </c>
       <c r="B1">
-        <v>2.400800356443721</v>
+        <v>0.9964777231216431</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.901272177696228</v>
       </c>
       <c r="D1">
-        <v>2.367282449644171</v>
+        <v>3.309988975524902</v>
       </c>
       <c r="E1">
-        <v>1.218042125121174</v>
+        <v>3.64540433883667</v>
       </c>
     </row>
   </sheetData>
